--- a/final_report/Trace_Report_Inbound YC Reload HRW.xlsx
+++ b/final_report/Trace_Report_Inbound YC Reload HRW.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D754FF07-A13B-4C08-A749-81D93EBCCAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6D495A-BC09-4ECA-833C-DEDD32420B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_format_trace!$A$3:$O$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
   <si>
     <t>Initial</t>
   </si>
@@ -68,40 +68,49 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>JOHNSTOWN</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
     <t>CNW</t>
   </si>
   <si>
-    <t>JOHNSTOWN</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>UP</t>
+    <t>MP</t>
   </si>
   <si>
     <t>CMO</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>WINDSOR</t>
-  </si>
-  <si>
-    <t>Arrive In-Transit</t>
+    <t>Placed Actual</t>
+  </si>
+  <si>
+    <t>NOKL</t>
+  </si>
+  <si>
+    <t>NDYX</t>
   </si>
   <si>
     <t>SCFX</t>
   </si>
   <si>
-    <t>NDYX</t>
-  </si>
-  <si>
-    <t>NOKL</t>
-  </si>
-  <si>
-    <t>CITX</t>
+    <t>MERRIAM</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>MVPNP2</t>
+  </si>
+  <si>
+    <t>COER</t>
   </si>
   <si>
     <t>Gross Weight</t>
@@ -113,82 +122,67 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/15/2023 05:58:50 EDT, by WPJTOWN1.The search returned: 33 events.</t>
+    <t>Description unknown, completed 06/21/2023 08:48:34 EDT, by WPJTOWN1.The search returned: 28 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
-    <t>UP111617</t>
-  </si>
-  <si>
-    <t>UP99065</t>
-  </si>
-  <si>
-    <t>UP90029</t>
-  </si>
-  <si>
-    <t>UP100044</t>
-  </si>
-  <si>
-    <t>CMO22761</t>
+    <t>UP75481</t>
+  </si>
+  <si>
+    <t>MP722708</t>
+  </si>
+  <si>
+    <t>CMO23472</t>
+  </si>
+  <si>
+    <t>CNW178081</t>
+  </si>
+  <si>
+    <t>UP78528</t>
+  </si>
+  <si>
+    <t>NOKL846001</t>
+  </si>
+  <si>
+    <t>NDYX850144</t>
+  </si>
+  <si>
+    <t>NDYX845913</t>
+  </si>
+  <si>
+    <t>SCFX516157</t>
   </si>
   <si>
     <t>MP723159</t>
   </si>
   <si>
-    <t>SCFX516157</t>
-  </si>
-  <si>
-    <t>NDYX845913</t>
-  </si>
-  <si>
-    <t>NDYX850144</t>
-  </si>
-  <si>
-    <t>NOKL846001</t>
-  </si>
-  <si>
-    <t>UP78528</t>
-  </si>
-  <si>
-    <t>CNW178081</t>
-  </si>
-  <si>
-    <t>CMO23472</t>
-  </si>
-  <si>
-    <t>MP722708</t>
-  </si>
-  <si>
-    <t>UP75481</t>
-  </si>
-  <si>
-    <t>MP722657</t>
-  </si>
-  <si>
-    <t>CNW178455</t>
-  </si>
-  <si>
-    <t>UP79331</t>
-  </si>
-  <si>
-    <t>UP93318</t>
-  </si>
-  <si>
-    <t>UP79794</t>
-  </si>
-  <si>
-    <t>UP76084</t>
-  </si>
-  <si>
-    <t>UP77257</t>
-  </si>
-  <si>
-    <t>CITX702202</t>
-  </si>
-  <si>
-    <t>33 CO</t>
+    <t>CMO20046</t>
+  </si>
+  <si>
+    <t>CMO22325</t>
+  </si>
+  <si>
+    <t>CMO265235</t>
+  </si>
+  <si>
+    <t>COER355059</t>
+  </si>
+  <si>
+    <t>UP93311</t>
+  </si>
+  <si>
+    <t>UP95524</t>
+  </si>
+  <si>
+    <t>UP99740</t>
+  </si>
+  <si>
+    <t>UP99979</t>
+  </si>
+  <si>
+    <t>10 On Hand</t>
   </si>
 </sst>
 </file>
@@ -513,7 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9FA459"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K36"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,12 +1058,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1107,16 +1101,16 @@
         <v>3</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1124,314 +1118,314 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>111617</v>
+        <v>75481</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="2">
-        <v>222000</v>
+        <v>197200</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>222000</v>
+        <v>197200</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>99065</v>
+        <v>722708</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="2">
-        <v>222750</v>
+        <v>200070</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>222750</v>
+        <v>200070</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>90029</v>
+        <v>23472</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L6" s="2">
-        <v>219240</v>
+        <v>220550</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>219240</v>
+        <v>220550</v>
       </c>
       <c r="O6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>100044</v>
+        <v>178081</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="2">
-        <v>220840</v>
+        <v>200350</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>220840</v>
+        <v>200350</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>22761</v>
+        <v>78528</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="2">
-        <v>222400</v>
+        <v>198110</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>222400</v>
+        <v>198110</v>
       </c>
       <c r="O8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>723159</v>
+        <v>846001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
       </c>
       <c r="F9" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="2">
-        <v>199010</v>
+        <v>220280</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>199010</v>
+        <v>220280</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>516157</v>
+        <v>850144</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="2">
-        <v>222500</v>
+        <v>220950</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>222500</v>
+        <v>220950</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1442,29 +1436,29 @@
         <v>845913</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="2">
         <v>6</v>
       </c>
       <c r="F11" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L11" s="2">
         <v>220650</v>
@@ -1476,688 +1470,479 @@
         <v>220650</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>850144</v>
+        <v>516157</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2">
         <v>6</v>
       </c>
       <c r="F12" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="2">
-        <v>220950</v>
+        <v>222500</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>220950</v>
+        <v>222500</v>
       </c>
       <c r="O12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>846001</v>
+        <v>723159</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
       </c>
       <c r="F13" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>1618</v>
+        <v>1431</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="2">
-        <v>220280</v>
+        <v>199010</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>220280</v>
+        <v>199010</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>20046</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>2350</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>220440</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>220440</v>
+      </c>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>22325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>2350</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>221890</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>221890</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>265235</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>2350</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>219030</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>219030</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>355059</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>2350</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>221470</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>221470</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
-        <v>78528</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B18">
+        <v>93311</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E18">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1618</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>2350</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>221120</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>221120</v>
+      </c>
+      <c r="O18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>95524</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="2">
-        <v>198110</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>2350</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>221010</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
-      <c r="N14" s="2">
-        <v>198110</v>
-      </c>
-      <c r="O14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
-        <v>178081</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="N19">
+        <v>221010</v>
+      </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>99740</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="F15" s="2">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1618</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>2350</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>222000</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>222000</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>99979</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="2">
-        <v>200350</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>2350</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>221120</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
-      <c r="N15" s="2">
-        <v>200350</v>
-      </c>
-      <c r="O15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>23472</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2">
-        <v>8</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1618</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="2">
-        <v>220550</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>220550</v>
-      </c>
-      <c r="O16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>722708</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1618</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="2">
-        <v>200070</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>200070</v>
-      </c>
-      <c r="O17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
-        <v>75481</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2">
-        <v>6</v>
-      </c>
-      <c r="F18" s="2">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="2">
-        <v>197200</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>197200</v>
-      </c>
-      <c r="O18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
-        <v>722657</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
-        <v>6</v>
-      </c>
-      <c r="F19" s="2">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="2">
-        <v>198420</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>198420</v>
-      </c>
-      <c r="O19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2">
-        <v>178455</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6</v>
-      </c>
-      <c r="F20" s="2">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="2">
-        <v>199210</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>199210</v>
-      </c>
-      <c r="O20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="2">
-        <v>79331</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2">
-        <v>14</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="2">
-        <v>196140</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>196140</v>
+      <c r="N21">
+        <v>221120</v>
       </c>
       <c r="O21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="2">
-        <v>93318</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2">
-        <v>14</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="2">
-        <v>219960</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>219960</v>
-      </c>
-      <c r="O22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>79794</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="2">
-        <v>196880</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>196880</v>
-      </c>
-      <c r="O23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2">
-        <v>76084</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2">
-        <v>6</v>
-      </c>
-      <c r="F24" s="2">
-        <v>14</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="2">
-        <v>196360</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>196360</v>
-      </c>
-      <c r="O24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="2">
-        <v>77257</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2">
-        <v>6</v>
-      </c>
-      <c r="F25" s="2">
-        <v>14</v>
-      </c>
-      <c r="G25" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="2">
-        <v>197780</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>197780</v>
-      </c>
-      <c r="O25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="2">
-        <v>702202</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2">
-        <v>14</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1003</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="2">
-        <v>219850</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>219850</v>
-      </c>
-      <c r="O26" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O26">
-    <sortCondition ref="D4:D26" customList="CO"/>
-    <sortCondition ref="H4:H26" customList="Placed Actual,Placed Construct"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:O21">
+    <sortCondition ref="D4:D21" customList="CO"/>
+    <sortCondition ref="H4:H21" customList="Placed Actual,Placed Construct"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/final_report/Trace_Report_Inbound YC Reload HRW.xlsx
+++ b/final_report/Trace_Report_Inbound YC Reload HRW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rail car\final_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F6D495A-BC09-4ECA-833C-DEDD32420B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F48CEB8-CDA2-4D0D-AC4E-7C325BBDA803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1110" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="3885" yWindow="2835" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Test_format_trace" sheetId="1" r:id="rId1"/>
@@ -68,30 +68,42 @@
     <t>Destination City</t>
   </si>
   <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>GRAND ISLAND</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Departure</t>
+  </si>
+  <si>
+    <t>MVPNP2</t>
+  </si>
+  <si>
     <t>JOHNSTOWN</t>
   </si>
   <si>
     <t>CO</t>
   </si>
   <si>
-    <t>MN</t>
-  </si>
-  <si>
     <t>UP</t>
   </si>
   <si>
+    <t>COER</t>
+  </si>
+  <si>
+    <t>Placed Actual</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
     <t>CNW</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>CMO</t>
-  </si>
-  <si>
-    <t>Placed Actual</t>
-  </si>
-  <si>
     <t>NOKL</t>
   </si>
   <si>
@@ -101,18 +113,6 @@
     <t>SCFX</t>
   </si>
   <si>
-    <t>MERRIAM</t>
-  </si>
-  <si>
-    <t>Departure</t>
-  </si>
-  <si>
-    <t>MVPNP2</t>
-  </si>
-  <si>
-    <t>COER</t>
-  </si>
-  <si>
     <t>Gross Weight</t>
   </si>
   <si>
@@ -122,12 +122,36 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>Description unknown, completed 06/21/2023 08:48:34 EDT, by WPJTOWN1.The search returned: 28 events.</t>
+    <t>Description unknown, completed 06/22/2023 11:09:19 EDT, by WPJTOWN1.The search returned: 18 events.</t>
   </si>
   <si>
     <t>Car_no</t>
   </si>
   <si>
+    <t>CMO20046</t>
+  </si>
+  <si>
+    <t>CMO22325</t>
+  </si>
+  <si>
+    <t>CMO265235</t>
+  </si>
+  <si>
+    <t>COER355059</t>
+  </si>
+  <si>
+    <t>UP93311</t>
+  </si>
+  <si>
+    <t>UP95524</t>
+  </si>
+  <si>
+    <t>UP99740</t>
+  </si>
+  <si>
+    <t>UP99979</t>
+  </si>
+  <si>
     <t>UP75481</t>
   </si>
   <si>
@@ -156,30 +180,6 @@
   </si>
   <si>
     <t>MP723159</t>
-  </si>
-  <si>
-    <t>CMO20046</t>
-  </si>
-  <si>
-    <t>CMO22325</t>
-  </si>
-  <si>
-    <t>CMO265235</t>
-  </si>
-  <si>
-    <t>COER355059</t>
-  </si>
-  <si>
-    <t>UP93311</t>
-  </si>
-  <si>
-    <t>UP95524</t>
-  </si>
-  <si>
-    <t>UP99740</t>
-  </si>
-  <si>
-    <t>UP99979</t>
   </si>
   <si>
     <t>10 On Hand</t>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1046,7 @@
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -1115,16 +1115,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
         <v>75481</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
@@ -1136,14 +1136,14 @@
         <v>1431</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2">
         <v>197200</v>
@@ -1155,21 +1155,21 @@
         <v>197200</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>722708</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>6</v>
@@ -1181,14 +1181,14 @@
         <v>1431</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2">
         <v>200070</v>
@@ -1200,21 +1200,21 @@
         <v>200070</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>23472</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -1226,14 +1226,14 @@
         <v>1431</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2">
         <v>220550</v>
@@ -1245,21 +1245,21 @@
         <v>220550</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <v>178081</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -1271,14 +1271,14 @@
         <v>1431</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2">
         <v>200350</v>
@@ -1290,21 +1290,21 @@
         <v>200350</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>78528</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>6</v>
@@ -1316,14 +1316,14 @@
         <v>1431</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L8" s="2">
         <v>198110</v>
@@ -1335,21 +1335,21 @@
         <v>198110</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2">
         <v>846001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
@@ -1361,14 +1361,14 @@
         <v>1431</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2">
         <v>220280</v>
@@ -1380,21 +1380,21 @@
         <v>220280</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>850144</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2">
         <v>6</v>
@@ -1406,14 +1406,14 @@
         <v>1431</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L10" s="2">
         <v>220950</v>
@@ -1425,21 +1425,21 @@
         <v>220950</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>845913</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
         <v>6</v>
@@ -1451,14 +1451,14 @@
         <v>1431</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L11" s="2">
         <v>220650</v>
@@ -1470,21 +1470,21 @@
         <v>220650</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>516157</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2">
         <v>6</v>
@@ -1496,14 +1496,14 @@
         <v>1431</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L12" s="2">
         <v>222500</v>
@@ -1515,21 +1515,21 @@
         <v>222500</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
         <v>723159</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2">
         <v>6</v>
@@ -1541,14 +1541,14 @@
         <v>1431</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2">
         <v>199010</v>
@@ -1560,18 +1560,18 @@
         <v>199010</v>
       </c>
       <c r="O13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>20046</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1580,22 +1580,22 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G14">
-        <v>2350</v>
+        <v>914</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L14">
         <v>220440</v>
@@ -1607,18 +1607,18 @@
         <v>220440</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>22325</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1627,22 +1627,22 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>2350</v>
+        <v>914</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L15">
         <v>221890</v>
@@ -1654,18 +1654,18 @@
         <v>221890</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>265235</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -1674,22 +1674,22 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>2350</v>
+        <v>914</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L16">
         <v>219030</v>
@@ -1701,18 +1701,18 @@
         <v>219030</v>
       </c>
       <c r="O16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>355059</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1721,22 +1721,22 @@
         <v>6</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G17">
-        <v>2350</v>
+        <v>914</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L17">
         <v>221470</v>
@@ -1748,18 +1748,18 @@
         <v>221470</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>93311</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1768,22 +1768,22 @@
         <v>6</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18">
-        <v>2350</v>
+        <v>914</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <v>221120</v>
@@ -1795,18 +1795,18 @@
         <v>221120</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>95524</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1815,22 +1815,22 @@
         <v>6</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>2350</v>
+        <v>914</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L19">
         <v>221010</v>
@@ -1842,18 +1842,18 @@
         <v>221010</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>99740</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1862,22 +1862,22 @@
         <v>6</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G20">
-        <v>2350</v>
+        <v>914</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L20">
         <v>222000</v>
@@ -1889,18 +1889,18 @@
         <v>222000</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>99979</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1909,22 +1909,22 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21">
-        <v>2350</v>
+        <v>914</v>
       </c>
       <c r="H21" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L21">
         <v>221120</v>
@@ -1936,7 +1936,7 @@
         <v>221120</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
